--- a/biology/Histoire de la zoologie et de la botanique/Tadeáš_Hájek/Tadeáš_Hájek.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tadeáš_Hájek/Tadeáš_Hájek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tade%C3%A1%C5%A1_H%C3%A1jek</t>
+          <t>Tadeáš_Hájek</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tadeáš Hájek (prononciation tchèque [tadeaːʃ ɦaːjɛk zɦaːjku]), également connu sous le nom de Tadeáš Hájek Hajek, Thaddée Hagecius ab Hayek ou Thaddeus Nemicus, né à Prague (royaume de Bohême) le 1er décembre 1525 et mort dans cette ville le 1er septembre 1600, est un astronome, mathématicien et naturaliste bohémien.
 Il était également le médecin personnel de l'empereur du Saint-Empire Rodolphe II.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tade%C3%A1%C5%A1_H%C3%A1jek</t>
+          <t>Tadeáš_Hájek</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tade%C3%A1%C5%A1_H%C3%A1jek</t>
+          <t>Tadeáš_Hájek</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
